--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codegym\C0722G1_sprint_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D8FC7F-FB7D-4AB6-ADB8-E7B49A0A6CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63675E78-1A2E-4C45-979E-A70751F0E1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2DF3688D-ABBF-4258-89FC-2B0325DEA34C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{2DF3688D-ABBF-4258-89FC-2B0325DEA34C}"/>
   </bookViews>
   <sheets>
     <sheet name="img" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>150.000VNĐ</t>
+  </si>
+  <si>
+    <t>id_size</t>
   </si>
 </sst>
 </file>
@@ -291,7 +294,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -314,12 +317,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -328,6 +342,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -645,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2424AA-B2B8-42B5-A385-A3FE7149504A}">
   <dimension ref="D5:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="D6:G11"/>
     </sheetView>
   </sheetViews>
@@ -1263,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8CD591-B8EC-47AC-9821-2EB686AC67DD}">
-  <dimension ref="C8:L14"/>
+  <dimension ref="C8:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L14" sqref="C9:L14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1301,7 @@
     <col min="14" max="14" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1315,8 +1332,9 @@
       <c r="L8" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>1</v>
       </c>
@@ -1348,7 +1366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>2</v>
       </c>
@@ -1380,7 +1398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>3</v>
       </c>
@@ -1412,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>4</v>
       </c>
@@ -1444,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>5</v>
       </c>
@@ -1476,7 +1494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>6</v>
       </c>
@@ -1525,7 +1543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296E7A9A-A46B-4529-9C04-B370DDD3E045}">
   <dimension ref="C6:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I12" sqref="C7:I12"/>
     </sheetView>
   </sheetViews>
@@ -1821,10 +1839,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7A724E-C50C-4905-BE20-7135687D528B}">
-  <dimension ref="C5:J11"/>
+  <dimension ref="C5:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="C6:J11"/>
+      <selection activeCell="K11" sqref="C6:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,7 +1856,7 @@
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1863,8 +1881,11 @@
       <c r="J5" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1</v>
       </c>
@@ -1889,8 +1910,11 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2</v>
       </c>
@@ -1915,8 +1939,11 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>3</v>
       </c>
@@ -1941,8 +1968,11 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>4</v>
       </c>
@@ -1967,8 +1997,11 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>5</v>
       </c>
@@ -1993,8 +2026,11 @@
       <c r="J10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>6</v>
       </c>
@@ -2018,6 +2054,9 @@
       </c>
       <c r="J11">
         <v>2</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2030,7 +2069,7 @@
   <dimension ref="E6:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="E7:G8"/>
+      <selection activeCell="E7" sqref="E7:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codegym\C0722G1_sprint_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63675E78-1A2E-4C45-979E-A70751F0E1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA71933-22A2-4D48-8C8E-3A5DEE006A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{2DF3688D-ABBF-4258-89FC-2B0325DEA34C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{2DF3688D-ABBF-4258-89FC-2B0325DEA34C}"/>
   </bookViews>
   <sheets>
     <sheet name="img" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,13 @@
     <sheet name="payment" sheetId="3" r:id="rId4"/>
     <sheet name="user" sheetId="4" r:id="rId5"/>
     <sheet name="order_detail" sheetId="9" r:id="rId6"/>
-    <sheet name="discount" sheetId="10" r:id="rId7"/>
-    <sheet name="clothes" sheetId="11" r:id="rId8"/>
-    <sheet name="user_type" sheetId="5" r:id="rId9"/>
-    <sheet name="account" sheetId="6" r:id="rId10"/>
-    <sheet name="role" sheetId="7" r:id="rId11"/>
-    <sheet name="account_role" sheetId="8" r:id="rId12"/>
+    <sheet name="order_clothes" sheetId="13" r:id="rId7"/>
+    <sheet name="discount" sheetId="10" r:id="rId8"/>
+    <sheet name="clothes" sheetId="11" r:id="rId9"/>
+    <sheet name="user_type" sheetId="5" r:id="rId10"/>
+    <sheet name="account" sheetId="6" r:id="rId11"/>
+    <sheet name="role" sheetId="7" r:id="rId12"/>
+    <sheet name="account_role" sheetId="8" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -188,18 +189,9 @@
     <t>role_id</t>
   </si>
   <si>
-    <t>oder_time</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
-    <t>id_payment</t>
-  </si>
-  <si>
-    <t>id_user</t>
-  </si>
-  <si>
     <t>Thât Bại</t>
   </si>
   <si>
@@ -248,13 +240,22 @@
     <t>Áo sơ Mi</t>
   </si>
   <si>
-    <t>Giá rẻ và đẹp</t>
-  </si>
-  <si>
-    <t>150.000VNĐ</t>
-  </si>
-  <si>
     <t>id_size</t>
+  </si>
+  <si>
+    <t>Áo thun trắng là một item thời trang cơ bản, đơn giản nhưng vô cùng phổ biến và thường được yêu thích bởi sự tiện dụng và dễ mix đồ.</t>
+  </si>
+  <si>
+    <t>$2a$10$99tlxGF9KnBQuO.xhXLZDO1IAhsv/BsPzKfT04EyyDz9mTqXRj9.u</t>
+  </si>
+  <si>
+    <t>order_clothes_id</t>
+  </si>
+  <si>
+    <t>payment_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
   </si>
 </sst>
 </file>
@@ -342,7 +343,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -660,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2424AA-B2B8-42B5-A385-A3FE7149504A}">
-  <dimension ref="D5:G12"/>
+  <dimension ref="D5:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="D6:G11"/>
+      <selection activeCell="D6" sqref="D6:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -709,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -723,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -737,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -751,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -765,15 +766,150 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
       <c r="G12">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>13</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -781,18 +917,73 @@
     <hyperlink ref="F7" r:id="rId1" xr:uid="{0B133740-9FC5-4DFC-866E-9F8CA4BA6CE6}"/>
     <hyperlink ref="F6" r:id="rId2" xr:uid="{089E17C9-9BC1-4709-A1D7-CFCF543624DB}"/>
     <hyperlink ref="F8" r:id="rId3" xr:uid="{1D370983-3F18-4FFF-8A03-59372F40619C}"/>
+    <hyperlink ref="F16" r:id="rId4" xr:uid="{9049073A-8B93-4E35-AF4B-EAACE6B51BD3}"/>
+    <hyperlink ref="F17:F21" r:id="rId5" display="https://aoxuanhe.com/upload/product/axh-095/ao-so-mi-nam-cong-so-trang-dep.jpg" xr:uid="{8E97F02D-E2FD-4372-B152-CF44347E77D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DB990E-2A30-41F0-96B6-8B51BA11DC33}">
+  <dimension ref="E6:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797DD881-C7DA-433F-B719-B0DE6C467437}">
   <dimension ref="E5:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="E6:H11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,8 +1014,8 @@
       <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>123456</v>
+      <c r="G6" t="s">
+        <v>69</v>
       </c>
       <c r="H6" t="s">
         <v>41</v>
@@ -837,8 +1028,8 @@
       <c r="F7" t="b">
         <v>0</v>
       </c>
-      <c r="G7">
-        <v>123456</v>
+      <c r="G7" t="s">
+        <v>69</v>
       </c>
       <c r="H7" t="s">
         <v>42</v>
@@ -851,8 +1042,8 @@
       <c r="F8" t="b">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>123456</v>
+      <c r="G8" t="s">
+        <v>69</v>
       </c>
       <c r="H8" t="s">
         <v>43</v>
@@ -865,8 +1056,8 @@
       <c r="F9" t="b">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>123456</v>
+      <c r="G9" t="s">
+        <v>69</v>
       </c>
       <c r="H9" t="s">
         <v>44</v>
@@ -879,8 +1070,8 @@
       <c r="F10" t="b">
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>123456</v>
+      <c r="G10" t="s">
+        <v>69</v>
       </c>
       <c r="H10" t="s">
         <v>45</v>
@@ -893,8 +1084,8 @@
       <c r="F11" t="b">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>123456</v>
+      <c r="G11" t="s">
+        <v>69</v>
       </c>
       <c r="H11" t="s">
         <v>46</v>
@@ -905,7 +1096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02346589-1BEC-40FE-AD8A-375FDE16A1F2}">
   <dimension ref="E5:F7"/>
   <sheetViews>
@@ -947,7 +1138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9D1AE8-16DE-4006-A40E-38A338D4330C}">
   <dimension ref="E7:G13"/>
   <sheetViews>
@@ -1120,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1150,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
@@ -1267,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -1282,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8CD591-B8EC-47AC-9821-2EB686AC67DD}">
   <dimension ref="C8:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L14" sqref="C9:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,22 +1732,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296E7A9A-A46B-4529-9C04-B370DDD3E045}">
-  <dimension ref="C6:I12"/>
+  <dimension ref="C6:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="C7:I12"/>
+      <selection activeCell="G12" sqref="C7:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1567,27 +1757,21 @@
         <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="3">
-        <v>44985</v>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1595,126 +1779,90 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="3">
-        <v>44985</v>
+      <c r="E8">
+        <v>2</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="3">
-        <v>44985</v>
+      <c r="E9">
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="3">
-        <v>44985</v>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="3">
-        <v>44985</v>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>6</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="3">
-        <v>44985</v>
+      <c r="E12">
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1723,6 +1871,124 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7104E7A5-C699-4564-9C5E-FC0AEBF1D9AD}">
+  <dimension ref="G9:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="G10:J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF9C04C-F606-4838-9AD6-9ABB3CB21012}">
   <dimension ref="D7:J10"/>
   <sheetViews>
@@ -1748,19 +2014,19 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.25">
@@ -1771,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G8" s="3">
         <v>44987</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I8" s="5">
         <v>0.05</v>
@@ -1794,13 +2060,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G9" s="3">
         <v>44987</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I9" s="5">
         <v>0.05</v>
@@ -1817,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3">
         <v>44987</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I10" s="5">
         <v>0.05</v>
@@ -1837,12 +2103,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7A724E-C50C-4905-BE20-7135687D528B}">
-  <dimension ref="C5:K11"/>
+  <dimension ref="C5:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="C6:K11"/>
+      <selection activeCell="C6" sqref="C6:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,28 +2127,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
@@ -1896,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="H6">
+        <v>150000</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1919,19 +2185,19 @@
         <v>2</v>
       </c>
       <c r="D7" s="3">
-        <v>44985</v>
+        <v>44984</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="H7">
+        <v>150000</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1948,19 +2214,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>44985</v>
+        <v>44983</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="H8">
+        <v>150000</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -1983,13 +2249,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="H9">
+        <v>150000</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2012,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="H10">
+        <v>150000</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2041,13 +2307,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="H11">
+        <v>150000</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2059,57 +2325,178 @@
         <v>1</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DB990E-2A30-41F0-96B6-8B51BA11DC33}">
-  <dimension ref="E6:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>44986</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12">
+        <v>150000</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>44987</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13">
+        <v>150000</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>44988</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14">
+        <v>150000</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>44989</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>150000</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>44990</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16">
+        <v>150000</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>44991</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17">
+        <v>150000</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
